--- a/Tests/Phase 4 test cases.xlsx
+++ b/Tests/Phase 4 test cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
-    <t>Atech Computers Website Test Cases</t>
-  </si>
-  <si>
     <t>Functionality</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>It is integrated in our current design but not implemented. It can be implemented in future Version.</t>
-  </si>
-  <si>
     <t>1) Press "Confirm" button below the product list;
 2) Go to "Products" page to search for the product and see if the product information has been updated.</t>
   </si>
@@ -132,12 +126,18 @@
   <si>
     <t>1) Observe the page below, it will shows number of products in a choosen provider file. For example : you have choosen PB as provider and choose its matching file and press import. It will shows "You are going to import 40 products".
 2) It will shows that "You are going to import 0 products"</t>
+  </si>
+  <si>
+    <t>Atech Computers Website Test Cases Phase4</t>
+  </si>
+  <si>
+    <t>Implemented in the next version.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,95 +503,95 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,230 +906,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+    <row r="7" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="10">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
-        <v>5</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28">
-        <v>7</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="31"/>
+      <c r="I12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>